--- a/examples/sources/data/unsolved/to_schedule/2018-11-15.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-11-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\optaplanner-time\examples\sources\data\unsolved\to_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D758405-62B0-41B4-98BE-6D77E29A9976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05252A76-15D3-4ECE-ACB8-3F7F8F06D640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="645" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Audiencias" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -826,7 +825,8 @@
   <dimension ref="A1:P144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,8 +1044,11 @@
       <c r="G8">
         <v>453</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
       <c r="M8" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1071,7 +1074,7 @@
         <v>388</v>
       </c>
       <c r="M9" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1097,7 +1100,7 @@
         <v>527</v>
       </c>
       <c r="M10" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1156,7 +1159,7 @@
         <v>335</v>
       </c>
       <c r="M12" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1182,7 +1185,7 @@
         <v>1072</v>
       </c>
       <c r="M13" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1208,7 +1211,7 @@
         <v>385</v>
       </c>
       <c r="M14" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1234,7 +1237,7 @@
         <v>1210</v>
       </c>
       <c r="M15" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1293,7 +1296,7 @@
         <v>875</v>
       </c>
       <c r="M17" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1319,7 +1322,7 @@
         <v>384</v>
       </c>
       <c r="M18" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1411,7 +1414,7 @@
         <v>1086</v>
       </c>
       <c r="M21" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -1437,7 +1440,7 @@
         <v>485</v>
       </c>
       <c r="M22" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1463,7 +1466,7 @@
         <v>844</v>
       </c>
       <c r="M23" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1522,7 +1525,7 @@
         <v>485</v>
       </c>
       <c r="M25" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1581,7 +1584,7 @@
         <v>485</v>
       </c>
       <c r="M27" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -1607,7 +1610,7 @@
         <v>485</v>
       </c>
       <c r="M28" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -1633,7 +1636,7 @@
         <v>383</v>
       </c>
       <c r="M29" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -1659,7 +1662,7 @@
         <v>383</v>
       </c>
       <c r="M30" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -1685,7 +1688,7 @@
         <v>485</v>
       </c>
       <c r="M31" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -1744,7 +1747,7 @@
         <v>485</v>
       </c>
       <c r="M33" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -1770,7 +1773,7 @@
         <v>485</v>
       </c>
       <c r="M34" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -1796,7 +1799,7 @@
         <v>485</v>
       </c>
       <c r="M35" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -1822,7 +1825,7 @@
         <v>648</v>
       </c>
       <c r="M36" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -1848,7 +1851,7 @@
         <v>648</v>
       </c>
       <c r="M37" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -1874,7 +1877,7 @@
         <v>731</v>
       </c>
       <c r="M38" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -1900,7 +1903,7 @@
         <v>703</v>
       </c>
       <c r="M39" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -1926,7 +1929,7 @@
         <v>485</v>
       </c>
       <c r="M40" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -1952,7 +1955,7 @@
         <v>377</v>
       </c>
       <c r="M41" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -1978,7 +1981,7 @@
         <v>485</v>
       </c>
       <c r="M42" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -2004,7 +2007,7 @@
         <v>355</v>
       </c>
       <c r="M43" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -2030,7 +2033,7 @@
         <v>564</v>
       </c>
       <c r="M44" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -2056,7 +2059,7 @@
         <v>485</v>
       </c>
       <c r="M45" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -2148,7 +2151,7 @@
         <v>485</v>
       </c>
       <c r="M48" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2273,7 +2276,7 @@
         <v>485</v>
       </c>
       <c r="M52" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -2364,8 +2367,11 @@
       <c r="G55">
         <v>1210</v>
       </c>
+      <c r="L55" s="3">
+        <v>1</v>
+      </c>
       <c r="M55" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2390,6 +2396,7 @@
       <c r="G56">
         <v>825</v>
       </c>
+      <c r="K56" s="3"/>
       <c r="M56" s="2"/>
       <c r="N56">
         <v>500</v>
@@ -2490,7 +2497,7 @@
         <v>516</v>
       </c>
       <c r="M59" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -2549,7 +2556,7 @@
         <v>381</v>
       </c>
       <c r="M61" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -2608,7 +2615,7 @@
         <v>705</v>
       </c>
       <c r="M63" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -2634,7 +2641,7 @@
         <v>1210</v>
       </c>
       <c r="M64" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -2660,7 +2667,7 @@
         <v>1088</v>
       </c>
       <c r="M65" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -2685,8 +2692,11 @@
       <c r="G66">
         <v>384</v>
       </c>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
       <c r="M66" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -2711,8 +2721,11 @@
       <c r="G67">
         <v>387</v>
       </c>
+      <c r="K67" s="3">
+        <v>1</v>
+      </c>
       <c r="M67" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -2804,7 +2817,7 @@
         <v>383</v>
       </c>
       <c r="M70" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -2863,7 +2876,7 @@
         <v>1084</v>
       </c>
       <c r="M72" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -2889,7 +2902,7 @@
         <v>358</v>
       </c>
       <c r="M73" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -2915,7 +2928,7 @@
         <v>384</v>
       </c>
       <c r="M74" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -2941,7 +2954,7 @@
         <v>453</v>
       </c>
       <c r="M75" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -2967,7 +2980,7 @@
         <v>1210</v>
       </c>
       <c r="M76" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -2993,7 +3006,7 @@
         <v>1317</v>
       </c>
       <c r="M77" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -3085,7 +3098,7 @@
         <v>380</v>
       </c>
       <c r="M80" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -3111,7 +3124,7 @@
         <v>1084</v>
       </c>
       <c r="M81" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -3170,7 +3183,7 @@
         <v>450</v>
       </c>
       <c r="M83" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -3196,7 +3209,7 @@
         <v>698</v>
       </c>
       <c r="M84" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -3222,7 +3235,7 @@
         <v>1317</v>
       </c>
       <c r="M85" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -3248,7 +3261,7 @@
         <v>1084</v>
       </c>
       <c r="M86" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -3307,7 +3320,7 @@
         <v>386</v>
       </c>
       <c r="M88" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -3333,7 +3346,7 @@
         <v>1317</v>
       </c>
       <c r="M89" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -3359,7 +3372,7 @@
         <v>508</v>
       </c>
       <c r="M90" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -3550,7 +3563,7 @@
         <v>698</v>
       </c>
       <c r="M96" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -3576,7 +3589,7 @@
         <v>698</v>
       </c>
       <c r="M97" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -3602,7 +3615,7 @@
         <v>377</v>
       </c>
       <c r="M98" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -3661,7 +3674,7 @@
         <v>1173</v>
       </c>
       <c r="M100" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -3687,7 +3700,7 @@
         <v>450</v>
       </c>
       <c r="M101" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -3746,7 +3759,7 @@
         <v>335</v>
       </c>
       <c r="M103" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -3805,7 +3818,7 @@
         <v>872</v>
       </c>
       <c r="M105" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -3864,7 +3877,7 @@
         <v>1084</v>
       </c>
       <c r="M107" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -3923,7 +3936,7 @@
         <v>708</v>
       </c>
       <c r="M109" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -3949,7 +3962,7 @@
         <v>530</v>
       </c>
       <c r="M110" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -4008,7 +4021,7 @@
         <v>649</v>
       </c>
       <c r="M112" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -4067,7 +4080,7 @@
         <v>511</v>
       </c>
       <c r="M114" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4093,7 +4106,7 @@
         <v>381</v>
       </c>
       <c r="M115" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -4119,7 +4132,7 @@
         <v>335</v>
       </c>
       <c r="M116" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -4145,7 +4158,7 @@
         <v>516</v>
       </c>
       <c r="M117" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -4203,8 +4216,11 @@
       <c r="G119">
         <v>541</v>
       </c>
+      <c r="K119" s="3">
+        <v>1</v>
+      </c>
       <c r="M119" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -4229,8 +4245,11 @@
       <c r="G120">
         <v>384</v>
       </c>
+      <c r="K120" s="3">
+        <v>1</v>
+      </c>
       <c r="M120" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -4322,7 +4341,7 @@
         <v>1316</v>
       </c>
       <c r="M123" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -4348,7 +4367,7 @@
         <v>645</v>
       </c>
       <c r="M124" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -4374,7 +4393,7 @@
         <v>388</v>
       </c>
       <c r="M125" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -4400,7 +4419,7 @@
         <v>704</v>
       </c>
       <c r="M126" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -4459,7 +4478,7 @@
         <v>355</v>
       </c>
       <c r="M128" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -4518,7 +4537,7 @@
         <v>541</v>
       </c>
       <c r="M130" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -4544,7 +4563,7 @@
         <v>621</v>
       </c>
       <c r="M131" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -4570,7 +4589,7 @@
         <v>700</v>
       </c>
       <c r="M132" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -4596,7 +4615,7 @@
         <v>701</v>
       </c>
       <c r="M133" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -4688,7 +4707,7 @@
         <v>1173</v>
       </c>
       <c r="M136" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -4714,7 +4733,7 @@
         <v>872</v>
       </c>
       <c r="M137" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
@@ -4740,7 +4759,7 @@
         <v>377</v>
       </c>
       <c r="M138" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
@@ -4766,7 +4785,7 @@
         <v>387</v>
       </c>
       <c r="M139" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
@@ -4792,7 +4811,7 @@
         <v>379</v>
       </c>
       <c r="M140" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
@@ -4818,7 +4837,7 @@
         <v>703</v>
       </c>
       <c r="M141" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
@@ -4844,7 +4863,7 @@
         <v>388</v>
       </c>
       <c r="M142" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -4870,7 +4889,7 @@
         <v>712</v>
       </c>
       <c r="M143" s="2">
-        <v>43424</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">

--- a/examples/sources/data/unsolved/to_schedule/2018-11-15.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-11-15.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\optaplanner-time\examples\sources\data\unsolved\to_schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo Reitano\Documents\GitHub\optaplanner-time\examples\sources\data\unsolved\to_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05252A76-15D3-4ECE-ACB8-3F7F8F06D640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D1F6D-6721-42C4-A024-03F538203ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="645" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audiencias" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="133">
   <si>
     <t>Id</t>
   </si>
@@ -416,6 +417,9 @@
   </si>
   <si>
     <t>A la Tarde</t>
+  </si>
+  <si>
+    <t>08:20</t>
   </si>
 </sst>
 </file>
@@ -477,13 +481,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,20 +831,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" sqref="A1:P144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="38.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,7 +893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>96319</v>
       </c>
@@ -923,7 +927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>96319</v>
       </c>
@@ -933,7 +937,7 @@
       <c r="M3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>96319</v>
       </c>
@@ -943,7 +947,7 @@
       <c r="M4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>96319</v>
       </c>
@@ -956,7 +960,7 @@
       <c r="M5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>96320</v>
       </c>
@@ -989,7 +993,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>96321</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>96322</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>96323</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>96324</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>96325</v>
       </c>
@@ -1136,7 +1140,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>96326</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>96327</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>96328</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>96329</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>96330</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>96331</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>96332</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>96333</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>96334</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>96335</v>
       </c>
@@ -1417,7 +1421,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>96336</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>96338</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>96339</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>96340</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>96341</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>96342</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>96343</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>96344</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>96345</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>96346</v>
       </c>
@@ -1691,7 +1695,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>96347</v>
       </c>
@@ -1724,7 +1728,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>96348</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>96349</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>96351</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>96352</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>96353</v>
       </c>
@@ -1854,7 +1858,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>96354</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>96356</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>96357</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>96358</v>
       </c>
@@ -1958,7 +1962,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>96359</v>
       </c>
@@ -1984,7 +1988,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>96360</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>96361</v>
       </c>
@@ -2036,7 +2040,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>96362</v>
       </c>
@@ -2062,7 +2066,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>96363</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>96364</v>
       </c>
@@ -2128,7 +2132,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>96365</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>96366</v>
       </c>
@@ -2187,7 +2191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>96367</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>96368</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>96369</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>96370</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>96371</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>96372</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>96373</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>96374</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>96375</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>96376</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>96377</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>96378</v>
       </c>
@@ -2559,7 +2563,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>96379</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>96380</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>96381</v>
       </c>
@@ -2644,7 +2648,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>96382</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>96384</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>96385</v>
       </c>
@@ -2728,7 +2732,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>96386</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>96387</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>96388</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>96389</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>96390</v>
       </c>
@@ -2879,7 +2883,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>96391</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>96392</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>96393</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>96394</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>96395</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>96397</v>
       </c>
@@ -3042,7 +3046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>96398</v>
       </c>
@@ -3075,7 +3079,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>96399</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>96400</v>
       </c>
@@ -3127,7 +3131,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>96401</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>96402</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>96403</v>
       </c>
@@ -3212,7 +3216,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>96404</v>
       </c>
@@ -3238,7 +3242,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>96405</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>96406</v>
       </c>
@@ -3297,7 +3301,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>96407</v>
       </c>
@@ -3323,7 +3327,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>96408</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>96409</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>96410</v>
       </c>
@@ -3408,7 +3412,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>96411</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>96412</v>
       </c>
@@ -3474,7 +3478,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>96413</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>96414</v>
       </c>
@@ -3540,7 +3544,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96415</v>
       </c>
@@ -3566,7 +3570,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96416</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96417</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>96418</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>96419</v>
       </c>
@@ -3677,7 +3681,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>96420</v>
       </c>
@@ -3703,7 +3707,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>96421</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>96422</v>
       </c>
@@ -3762,7 +3766,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>96423</v>
       </c>
@@ -3795,7 +3799,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>96424</v>
       </c>
@@ -3821,7 +3825,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>96425</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>96426</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>96427</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>96428</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>96429</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>96430</v>
       </c>
@@ -3998,7 +4002,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>96431</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>96432</v>
       </c>
@@ -4057,7 +4061,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>96433</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>96434</v>
       </c>
@@ -4109,7 +4113,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>96435</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>96436</v>
       </c>
@@ -4161,7 +4165,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>96437</v>
       </c>
@@ -4194,7 +4198,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>96438</v>
       </c>
@@ -4223,7 +4227,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>96439</v>
       </c>
@@ -4252,7 +4256,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>96440</v>
       </c>
@@ -4285,7 +4289,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>96441</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>96442</v>
       </c>
@@ -4344,7 +4348,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>96443</v>
       </c>
@@ -4370,7 +4374,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>96444</v>
       </c>
@@ -4396,7 +4400,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>96445</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>96446</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>96447</v>
       </c>
@@ -4481,7 +4485,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>96448</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>96449</v>
       </c>
@@ -4540,7 +4544,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>96450</v>
       </c>
@@ -4566,7 +4570,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>96451</v>
       </c>
@@ -4592,7 +4596,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>96452</v>
       </c>
@@ -4618,7 +4622,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>96453</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>96454</v>
       </c>
@@ -4684,7 +4688,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>96455</v>
       </c>
@@ -4710,7 +4714,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>96456</v>
       </c>
@@ -4736,7 +4740,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>96457</v>
       </c>
@@ -4762,7 +4766,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>96458</v>
       </c>
@@ -4788,7 +4792,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>96459</v>
       </c>
@@ -4814,7 +4818,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>96460</v>
       </c>
@@ -4840,7 +4844,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>96461</v>
       </c>
@@ -4866,7 +4870,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>96462</v>
       </c>
@@ -4892,7 +4896,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>96463</v>
       </c>
@@ -4929,4 +4933,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7965495F-3BE6-4C4F-A068-610771B308AA}">
+  <dimension ref="A146:P148"/>
+  <sheetViews>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A144" sqref="A1:P144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="43.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>96319</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147">
+        <v>863</v>
+      </c>
+      <c r="D147">
+        <v>820</v>
+      </c>
+      <c r="E147">
+        <v>804</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147">
+        <v>847</v>
+      </c>
+      <c r="J147" s="3"/>
+      <c r="M147" s="2"/>
+      <c r="N147">
+        <v>500</v>
+      </c>
+      <c r="O147" s="2">
+        <v>43424</v>
+      </c>
+      <c r="P147" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>96320</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148">
+        <v>862</v>
+      </c>
+      <c r="D148">
+        <v>817</v>
+      </c>
+      <c r="E148">
+        <v>804</v>
+      </c>
+      <c r="F148" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148">
+        <v>550</v>
+      </c>
+      <c r="M148" s="2">
+        <v>43419</v>
+      </c>
+      <c r="O148" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>